--- a/assignment2/excel.xlsx
+++ b/assignment2/excel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t>Noise percentage</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Fitness</t>
   </si>
   <si>
-    <t>Remove Head</t>
+    <t>Add Event</t>
   </si>
 </sst>
 </file>
@@ -189,39 +189,6 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n" s="2">
-        <v>80.0</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n" s="2">
-        <v>90.0</v>
-      </c>
-      <c r="B11" t="s" s="4">
-        <v>3</v>
-      </c>
-      <c r="C11" t="n" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="B12" t="s" s="4">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/assignment2/excel.xlsx
+++ b/assignment2/excel.xlsx
@@ -119,9 +119,7 @@
       <c r="B3" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="C3" t="n" s="2">
-        <v>1.0</v>
-      </c>
+      <c r="C3"/>
     </row>
     <row r="4">
       <c r="A4" t="n" s="2">
@@ -130,9 +128,7 @@
       <c r="B4" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="C4" t="n" s="2">
-        <v>1.0</v>
-      </c>
+      <c r="C4"/>
     </row>
     <row r="5">
       <c r="A5" t="n" s="2">
@@ -141,9 +137,7 @@
       <c r="B5" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="C5" t="n" s="2">
-        <v>1.0</v>
-      </c>
+      <c r="C5"/>
     </row>
     <row r="6">
       <c r="A6" t="n" s="2">
@@ -152,9 +146,7 @@
       <c r="B6" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="C6" t="n" s="2">
-        <v>1.0</v>
-      </c>
+      <c r="C6"/>
     </row>
     <row r="7">
       <c r="A7" t="n" s="2">
@@ -163,9 +155,7 @@
       <c r="B7" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="C7" t="n" s="2">
-        <v>1.0</v>
-      </c>
+      <c r="C7"/>
     </row>
     <row r="8">
       <c r="A8" t="n" s="2">
@@ -174,9 +164,7 @@
       <c r="B8" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="C8" t="n" s="2">
-        <v>1.0</v>
-      </c>
+      <c r="C8"/>
     </row>
     <row r="9">
       <c r="A9" t="n" s="2">
@@ -185,9 +173,7 @@
       <c r="B9" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="C9" t="n" s="2">
-        <v>1.0</v>
-      </c>
+      <c r="C9"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/assignment2/excel.xlsx
+++ b/assignment2/excel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="8">
   <si>
     <t>Noise percentage</t>
   </si>
@@ -23,7 +23,19 @@
     <t>Fitness</t>
   </si>
   <si>
+    <t>Remove Head</t>
+  </si>
+  <si>
+    <t>Remove Body</t>
+  </si>
+  <si>
     <t>Add Event</t>
+  </si>
+  <si>
+    <t>Swap Tasks</t>
+  </si>
+  <si>
+    <t>Remove Task</t>
   </si>
 </sst>
 </file>
@@ -119,7 +131,9 @@
       <c r="B3" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" t="n" s="2">
+        <v>0.9893169230769229</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="2">
@@ -128,7 +142,9 @@
       <c r="B4" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="n" s="2">
+        <v>0.9807076923076925</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="2">
@@ -137,7 +153,9 @@
       <c r="B5" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="C5"/>
+      <c r="C5" t="n" s="2">
+        <v>0.9716184615384614</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="2">
@@ -146,7 +164,9 @@
       <c r="B6" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="C6"/>
+      <c r="C6" t="n" s="2">
+        <v>0.9631815384615383</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="2">
@@ -155,7 +175,9 @@
       <c r="B7" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" t="n" s="2">
+        <v>0.9543138461538461</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="2">
@@ -164,7 +186,9 @@
       <c r="B8" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="C8"/>
+      <c r="C8" t="n" s="2">
+        <v>0.9672933333333333</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="2">
@@ -173,7 +197,526 @@
       <c r="B9" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" t="n" s="2">
+        <v>0.9621799999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="B10" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n" s="2">
+        <v>0.9551333333333331</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n" s="2">
+        <v>0.9759855072463776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n" s="2">
+        <v>0.9844347826086951</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B13" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B14" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n" s="2">
+        <v>0.9534902711323762</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B15" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n" s="2">
+        <v>0.9148854864433811</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B16" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n" s="2">
+        <v>0.8747855396065912</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="B17" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n" s="2">
+        <v>0.84937866234213</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="B18" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n" s="2">
+        <v>0.8287056759545921</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="B19" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n" s="2">
+        <v>0.9056278388278388</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="B20" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n" s="2">
+        <v>0.9192084582084588</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="B21" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n" s="2">
+        <v>0.9050725940725942</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="B22" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C22" t="n" s="2">
+        <v>0.894662004662004</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="B23" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="C23" t="n" s="2">
+        <v>0.91901351981352</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B24" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B25" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n" s="2">
+        <v>0.9536300000000002</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B26" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n" s="2">
+        <v>0.8898260869565217</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B27" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C27" t="n" s="2">
+        <v>0.8863320158102773</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="B28" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C28" t="n" s="2">
+        <v>0.831707509881423</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="B29" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n" s="2">
+        <v>0.8282529644268778</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="B30" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n" s="2">
+        <v>0.8247193675889328</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="B31" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C31" t="n" s="2">
+        <v>0.820897233201581</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="B32" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C32" t="n" s="2">
+        <v>0.9355670995670994</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="B33" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n" s="2">
+        <v>0.9319610389610381</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="B34" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n" s="2">
+        <v>0.9286363636363643</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B35" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="C35" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B36" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="C36" t="n" s="2">
+        <v>0.9346363636363638</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B37" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n" s="2">
+        <v>0.9420869565217389</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B38" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="C38" t="n" s="2">
+        <v>0.9319999999999998</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="B39" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n" s="2">
+        <v>0.9517599999999989</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="B40" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="B41" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="B42" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="C42" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="B43" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="B44" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="C44" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="B45" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="C45" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="B46" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="C46" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B47" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="C47" t="n" s="2">
+        <v>0.995851851851852</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B48" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="C48" t="n" s="2">
+        <v>0.9926666666666671</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B49" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="C49" t="n" s="2">
+        <v>0.9894074074074074</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="B50" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="C50" t="n" s="2">
+        <v>0.9862222222222224</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="C51" t="n" s="2">
+        <v>0.9831111111111117</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="B52" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="C52" t="n" s="2">
+        <v>0.9798518518518515</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="B53" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="C53" t="n" s="2">
+        <v>0.9763703703703707</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="B54" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="C54" t="n" s="2">
+        <v>0.97237037037037</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="B55" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="C55" t="n" s="2">
+        <v>0.9688148148148145</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="B56" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="C56" t="n" s="2">
+        <v>0.9657777777777783</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
